--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -446,1025 +446,1025 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ÁGUAS CLARAS</t>
+          <t>ASA NORTE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80032</v>
+        <v>83764</v>
       </c>
       <c r="C2" t="n">
-        <v>41077</v>
+        <v>43963</v>
       </c>
       <c r="D2" t="n">
-        <v>38955</v>
+        <v>39801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AREA DE DESENVOLVIMENTO ECONOMICO</t>
+          <t>CEILANDIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>83324</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27197</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>56127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AREA OCTOGONAL</t>
+          <t>ÁGUAS CLARAS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4405</v>
+        <v>80032</v>
       </c>
       <c r="C4" t="n">
-        <v>3160</v>
+        <v>41077</v>
       </c>
       <c r="D4" t="n">
-        <v>1245</v>
+        <v>38955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASA NORTE</t>
+          <t>ASA SUL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83764</v>
+        <v>52445</v>
       </c>
       <c r="C5" t="n">
-        <v>43963</v>
+        <v>30762</v>
       </c>
       <c r="D5" t="n">
-        <v>39801</v>
+        <v>21683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASA SUL</t>
+          <t>TAGUATINGA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52445</v>
+        <v>45645</v>
       </c>
       <c r="C6" t="n">
-        <v>30762</v>
+        <v>16598</v>
       </c>
       <c r="D6" t="n">
-        <v>21683</v>
+        <v>29047</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAMPUS UNIVERSITARIO DARCY RIBEIRO</t>
+          <t>VICENTE PIRES</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>42083</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>16762</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CANDANGOLANDIA</t>
+          <t>GAMA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5988</v>
+        <v>39091</v>
       </c>
       <c r="C8" t="n">
-        <v>2405</v>
+        <v>15122</v>
       </c>
       <c r="D8" t="n">
-        <v>3583</v>
+        <v>23969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CEILANDIA</t>
+          <t>GUARA II</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83324</v>
+        <v>34164</v>
       </c>
       <c r="C9" t="n">
-        <v>27197</v>
+        <v>16306</v>
       </c>
       <c r="D9" t="n">
-        <v>56127</v>
+        <v>17858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CRUZEIRO NOVO</t>
+          <t>TAGUATINGA NORTE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8595</v>
+        <v>28360</v>
       </c>
       <c r="C10" t="n">
-        <v>5972</v>
+        <v>9469</v>
       </c>
       <c r="D10" t="n">
-        <v>2623</v>
+        <v>18891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CRUZEIRO VELHO</t>
+          <t>SETOR SUDOESTE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3607</v>
+        <v>28025</v>
       </c>
       <c r="C11" t="n">
-        <v>1607</v>
+        <v>16287</v>
       </c>
       <c r="D11" t="n">
-        <v>2000</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G COL SOBRADINHO</t>
+          <t>SOBRADINHO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3593</v>
+        <v>25947</v>
       </c>
       <c r="C12" t="n">
-        <v>1893</v>
+        <v>10792</v>
       </c>
       <c r="D12" t="n">
-        <v>1700</v>
+        <v>15155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GAMA</t>
+          <t>SAMAMBAIA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39091</v>
+        <v>23336</v>
       </c>
       <c r="C13" t="n">
-        <v>15122</v>
+        <v>8014</v>
       </c>
       <c r="D13" t="n">
-        <v>23969</v>
+        <v>15322</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GRANJA DO TORTO</t>
+          <t>GUARA I</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>806</v>
+        <v>19730</v>
       </c>
       <c r="C14" t="n">
-        <v>444</v>
+        <v>9652</v>
       </c>
       <c r="D14" t="n">
-        <v>362</v>
+        <v>10078</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GUARA I</t>
+          <t>RIACHO FUNDO  I</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19730</v>
+        <v>19350</v>
       </c>
       <c r="C15" t="n">
-        <v>9652</v>
+        <v>8079</v>
       </c>
       <c r="D15" t="n">
-        <v>10078</v>
+        <v>11271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GUARA II</t>
+          <t>TAGUATINGA SUL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34164</v>
+        <v>18787</v>
       </c>
       <c r="C16" t="n">
-        <v>16306</v>
+        <v>6846</v>
       </c>
       <c r="D16" t="n">
-        <v>17858</v>
+        <v>11941</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JARDIM MANGUEIRAL</t>
+          <t>SAO SEBASTIAO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7729</v>
+        <v>16519</v>
       </c>
       <c r="C17" t="n">
-        <v>3546</v>
+        <v>5596</v>
       </c>
       <c r="D17" t="n">
-        <v>4183</v>
+        <v>10923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LAGO NORTE</t>
+          <t>SAMAMBAIA SUL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8851</v>
+        <v>16387</v>
       </c>
       <c r="C18" t="n">
-        <v>4586</v>
+        <v>6402</v>
       </c>
       <c r="D18" t="n">
-        <v>4265</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LAGO SUL</t>
+          <t>RIACHO FUNDO II</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5195</v>
+        <v>13668</v>
       </c>
       <c r="C19" t="n">
-        <v>2483</v>
+        <v>5247</v>
       </c>
       <c r="D19" t="n">
-        <v>2712</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>METROPOLITANA</t>
+          <t>RECANTO DAS EMAS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1085</v>
+        <v>13251</v>
       </c>
       <c r="C20" t="n">
-        <v>465</v>
+        <v>4867</v>
       </c>
       <c r="D20" t="n">
-        <v>620</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NUCLEO BANDEIRANTE</t>
+          <t>SET DE HAB IND SUL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11366</v>
+        <v>12394</v>
       </c>
       <c r="C21" t="n">
-        <v>4383</v>
+        <v>6397</v>
       </c>
       <c r="D21" t="n">
-        <v>6983</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PARANOA</t>
+          <t>NUCLEO BANDEIRANTE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11201</v>
+        <v>11366</v>
       </c>
       <c r="C22" t="n">
-        <v>3900</v>
+        <v>4383</v>
       </c>
       <c r="D22" t="n">
-        <v>7301</v>
+        <v>6983</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PARK WAY</t>
+          <t>PARANOA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2579</v>
+        <v>11201</v>
       </c>
       <c r="C23" t="n">
-        <v>1578</v>
+        <v>3900</v>
       </c>
       <c r="D23" t="n">
-        <v>1001</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PLANO PILOTO</t>
+          <t>SETOR MANSOES SOBRADINHO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>230</v>
+        <v>10204</v>
       </c>
       <c r="C24" t="n">
-        <v>199</v>
+        <v>2964</v>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R D LAGOS (SOBRAD)</t>
+          <t>S H J BOTANICO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6142</v>
+        <v>9391</v>
       </c>
       <c r="C25" t="n">
-        <v>3207</v>
+        <v>5109</v>
       </c>
       <c r="D25" t="n">
-        <v>2935</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RECANTO DAS EMAS</t>
+          <t>LAGO NORTE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13251</v>
+        <v>8851</v>
       </c>
       <c r="C26" t="n">
-        <v>4867</v>
+        <v>4586</v>
       </c>
       <c r="D26" t="n">
-        <v>8384</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>REGIAO DOS LAGOS SOBRADINHO</t>
+          <t>CRUZEIRO NOVO</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1177</v>
+        <v>8595</v>
       </c>
       <c r="C27" t="n">
-        <v>603</v>
+        <v>5972</v>
       </c>
       <c r="D27" t="n">
-        <v>574</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RIACHO FUNDO  I</t>
+          <t>SETOR RESIDENCIAL OESTE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19350</v>
+        <v>8236</v>
       </c>
       <c r="C28" t="n">
-        <v>8079</v>
+        <v>2685</v>
       </c>
       <c r="D28" t="n">
-        <v>11271</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RIACHO FUNDO II</t>
+          <t>JARDIM MANGUEIRAL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13668</v>
+        <v>7729</v>
       </c>
       <c r="C29" t="n">
-        <v>5247</v>
+        <v>3546</v>
       </c>
       <c r="D29" t="n">
-        <v>8421</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S H J BOTANICO</t>
+          <t>SETOR NOROESTE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9391</v>
+        <v>7183</v>
       </c>
       <c r="C30" t="n">
-        <v>5109</v>
+        <v>2069</v>
       </c>
       <c r="D30" t="n">
-        <v>4282</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S H TORORO (SANTA MARIA)</t>
+          <t>R D LAGOS (SOBRAD)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129</v>
+        <v>6142</v>
       </c>
       <c r="C31" t="n">
-        <v>56</v>
+        <v>3207</v>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S HABITACIONAL V P</t>
+          <t>SETOR DE HABIT IND NORTE</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>6094</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>2923</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SAMAMBAI NORTE</t>
+          <t>CANDANGOLANDIA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>361</v>
+        <v>5988</v>
       </c>
       <c r="C33" t="n">
-        <v>171</v>
+        <v>2405</v>
       </c>
       <c r="D33" t="n">
-        <v>190</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SAMAMBAIA</t>
+          <t>ZONA  INDUSTRIAL (GUARA)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23336</v>
+        <v>5901</v>
       </c>
       <c r="C34" t="n">
-        <v>8014</v>
+        <v>2759</v>
       </c>
       <c r="D34" t="n">
-        <v>15322</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SAMAMBAIA SUL</t>
+          <t>LAGO SUL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16387</v>
+        <v>5195</v>
       </c>
       <c r="C35" t="n">
-        <v>6402</v>
+        <v>2483</v>
       </c>
       <c r="D35" t="n">
-        <v>9985</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>AREA OCTOGONAL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2905</v>
+        <v>4405</v>
       </c>
       <c r="C36" t="n">
-        <v>1289</v>
+        <v>3160</v>
       </c>
       <c r="D36" t="n">
-        <v>1616</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SAO SEBASTIAO</t>
+          <t>CRUZEIRO VELHO</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16519</v>
+        <v>3607</v>
       </c>
       <c r="C37" t="n">
-        <v>5596</v>
+        <v>1607</v>
       </c>
       <c r="D37" t="n">
-        <v>10923</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SET DE HAB IND SUL</t>
+          <t>G COL SOBRADINHO</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12394</v>
+        <v>3593</v>
       </c>
       <c r="C38" t="n">
-        <v>6397</v>
+        <v>1893</v>
       </c>
       <c r="D38" t="n">
-        <v>5997</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SET HAB CONTAGEM (SOBRADINHO)</t>
+          <t>VILA PLANALTO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>230</v>
+        <v>3584</v>
       </c>
       <c r="C39" t="n">
-        <v>74</v>
+        <v>1417</v>
       </c>
       <c r="D39" t="n">
-        <v>156</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SETOR DE HABIT IND NORTE</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6094</v>
+        <v>2905</v>
       </c>
       <c r="C40" t="n">
-        <v>2923</v>
+        <v>1289</v>
       </c>
       <c r="D40" t="n">
-        <v>3171</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SETOR DE HABIT INDIVIDUAIS SUL</t>
+          <t>SETOR HAB ARNIQUEIRA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2673</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>1382</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SETOR H CONTAGEM (SOBRADINHO)</t>
+          <t>PARK WAY</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>293</v>
+        <v>2579</v>
       </c>
       <c r="C42" t="n">
-        <v>130</v>
+        <v>1578</v>
       </c>
       <c r="D42" t="n">
-        <v>163</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SETOR HAB ARNIQUEIRA</t>
+          <t>Z IND (GUARA)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2673</v>
+        <v>1896</v>
       </c>
       <c r="C43" t="n">
-        <v>1382</v>
+        <v>623</v>
       </c>
       <c r="D43" t="n">
-        <v>1291</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SETOR HABIT JD BOTANICO</t>
+          <t>ZONA INDUSTRIAL</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>427</v>
+        <v>1853</v>
       </c>
       <c r="C44" t="n">
-        <v>199</v>
+        <v>582</v>
       </c>
       <c r="D44" t="n">
-        <v>228</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SETOR HABITACIONAL JARDIM BOTANICO</t>
+          <t>ZONA CIVICO ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>278</v>
+        <v>1402</v>
       </c>
       <c r="C45" t="n">
-        <v>147</v>
+        <v>902</v>
       </c>
       <c r="D45" t="n">
-        <v>131</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SETOR MANSOES SOBRADINHO</t>
+          <t>REGIAO DOS LAGOS SOBRADINHO</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10204</v>
+        <v>1177</v>
       </c>
       <c r="C46" t="n">
-        <v>2964</v>
+        <v>603</v>
       </c>
       <c r="D46" t="n">
-        <v>7240</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SETOR MILITAR URBANO</t>
+          <t>METROPOLITANA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1012</v>
+        <v>1085</v>
       </c>
       <c r="C47" t="n">
-        <v>630</v>
+        <v>465</v>
       </c>
       <c r="D47" t="n">
-        <v>382</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SETOR NOROESTE</t>
+          <t>SETOR MILITAR URBANO</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7183</v>
+        <v>1012</v>
       </c>
       <c r="C48" t="n">
-        <v>2069</v>
+        <v>630</v>
       </c>
       <c r="D48" t="n">
-        <v>5114</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SETOR OESTE (SOBRADINHO II)</t>
+          <t>ZONA CIVICO-ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>823</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SETOR RESIDENCIAL OESTE</t>
+          <t>GRANJA DO TORTO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8236</v>
+        <v>806</v>
       </c>
       <c r="C50" t="n">
-        <v>2685</v>
+        <v>444</v>
       </c>
       <c r="D50" t="n">
-        <v>5551</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SETOR SUDOESTE</t>
+          <t>ST DE HB INDIVIDUAIS SUL</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28025</v>
+        <v>736</v>
       </c>
       <c r="C51" t="n">
-        <v>16287</v>
+        <v>396</v>
       </c>
       <c r="D51" t="n">
-        <v>11738</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOBRADINHO</t>
+          <t>SETOR HABIT JD BOTANICO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25947</v>
+        <v>427</v>
       </c>
       <c r="C52" t="n">
-        <v>10792</v>
+        <v>199</v>
       </c>
       <c r="D52" t="n">
-        <v>15155</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ST DE HB INDIVIDUAIS SUL</t>
+          <t>SAMAMBAI NORTE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>736</v>
+        <v>361</v>
       </c>
       <c r="C53" t="n">
-        <v>396</v>
+        <v>171</v>
       </c>
       <c r="D53" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ST H JD BOTANICO (LAGO SUL)</t>
+          <t>SETOR H CONTAGEM (SOBRADINHO)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="C54" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D54" t="n">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TAGUATINGA</t>
+          <t>SETOR HABITACIONAL JARDIM BOTANICO</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>45645</v>
+        <v>278</v>
       </c>
       <c r="C55" t="n">
-        <v>16598</v>
+        <v>147</v>
       </c>
       <c r="D55" t="n">
-        <v>29047</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TAGUATINGA NORTE</t>
+          <t>PLANO PILOTO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28360</v>
+        <v>230</v>
       </c>
       <c r="C56" t="n">
-        <v>9469</v>
+        <v>199</v>
       </c>
       <c r="D56" t="n">
-        <v>18891</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TAGUATINGA SUL</t>
+          <t>SET HAB CONTAGEM (SOBRADINHO)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>18787</v>
+        <v>230</v>
       </c>
       <c r="C57" t="n">
-        <v>6846</v>
+        <v>74</v>
       </c>
       <c r="D57" t="n">
-        <v>11941</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VICENTE PIRES</t>
+          <t>ST H JD BOTANICO (LAGO SUL)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>42083</v>
+        <v>143</v>
       </c>
       <c r="C58" t="n">
-        <v>16762</v>
+        <v>65</v>
       </c>
       <c r="D58" t="n">
-        <v>25321</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VILA PLANALTO</t>
+          <t>S H TORORO (SANTA MARIA)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3584</v>
+        <v>129</v>
       </c>
       <c r="C59" t="n">
-        <v>1417</v>
+        <v>56</v>
       </c>
       <c r="D59" t="n">
-        <v>2167</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VILA SAO JOSE</t>
+          <t>S HABITACIONAL V P</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Z IND (GUARA)</t>
+          <t>SETOR OESTE (SOBRADINHO II)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1896</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1273</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ZONA  INDUSTRIAL (GUARA)</t>
+          <t>VILA SAO JOSE</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5901</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>2759</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>3142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ZONA CIVICO ADMINISTRATIVA</t>
+          <t>AREA DE DESENVOLVIMENTO ECONOMICO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1402</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ZONA CIVICO-ADMINISTRATIVA</t>
+          <t>CAMPUS UNIVERSITARIO DARCY RIBEIRO</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>823</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ZONA INDUSTRIAL</t>
+          <t>SETOR DE HABIT INDIVIDUAIS SUL</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1853</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
       <c r="D2" t="n">
         <v>39801</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.48436082326536%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,6 +479,11 @@
       <c r="D3" t="n">
         <v>56127</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.640055686236856%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -490,6 +500,11 @@
       <c r="D4" t="n">
         <v>38955</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>51.32571971211515%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -506,6 +521,11 @@
       <c r="D5" t="n">
         <v>21683</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.655734579082846%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +542,11 @@
       <c r="D6" t="n">
         <v>29047</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.363238032643224%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -538,6 +563,11 @@
       <c r="D7" t="n">
         <v>25321</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.830810541073596%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +584,11 @@
       <c r="D8" t="n">
         <v>23969</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.68409608349748%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,6 +605,11 @@
       <c r="D9" t="n">
         <v>17858</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>47.72860320805526%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -586,6 +626,11 @@
       <c r="D10" t="n">
         <v>18891</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.388575458392104%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -602,6 +647,11 @@
       <c r="D11" t="n">
         <v>11738</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.11596788581623%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -618,6 +668,11 @@
       <c r="D12" t="n">
         <v>15155</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.59247697228967%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -634,6 +689,11 @@
       <c r="D13" t="n">
         <v>15322</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.341789509770315%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -650,6 +710,11 @@
       <c r="D14" t="n">
         <v>10078</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.920425747592496%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -666,6 +731,11 @@
       <c r="D15" t="n">
         <v>11271</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.751937984496124%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -682,6 +752,11 @@
       <c r="D16" t="n">
         <v>11941</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.4400915526694%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -698,6 +773,11 @@
       <c r="D17" t="n">
         <v>10923</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.8761426236455%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -714,6 +794,11 @@
       <c r="D18" t="n">
         <v>9985</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.06755354854458%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -730,6 +815,11 @@
       <c r="D19" t="n">
         <v>8421</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.38893766461808%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -746,6 +836,11 @@
       <c r="D20" t="n">
         <v>8384</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.729303448796315%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -762,6 +857,11 @@
       <c r="D21" t="n">
         <v>5997</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>51.613684040664836%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -778,6 +878,11 @@
       <c r="D22" t="n">
         <v>6983</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>38.56237902516277%</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -794,6 +899,11 @@
       <c r="D23" t="n">
         <v>7301</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.818319792875634%</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -810,6 +920,11 @@
       <c r="D24" t="n">
         <v>7240</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.047432379459035%</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -826,6 +941,11 @@
       <c r="D25" t="n">
         <v>4282</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.40315195399851%</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -842,6 +962,11 @@
       <c r="D26" t="n">
         <v>4265</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>51.813354423229015%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -858,6 +983,11 @@
       <c r="D27" t="n">
         <v>2623</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.48225712623618%</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -874,6 +1004,11 @@
       <c r="D28" t="n">
         <v>5551</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.60077707625061%</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -890,6 +1025,11 @@
       <c r="D29" t="n">
         <v>4183</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>45.8791564238582%</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -906,6 +1046,11 @@
       <c r="D30" t="n">
         <v>5114</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.804120840874287%</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -922,6 +1067,11 @@
       <c r="D31" t="n">
         <v>2935</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>52.21426245522631%</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -938,6 +1088,11 @@
       <c r="D32" t="n">
         <v>3171</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>47.96521168362324%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -954,6 +1109,11 @@
       <c r="D33" t="n">
         <v>3583</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.16366065464262%</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -970,6 +1130,11 @@
       <c r="D34" t="n">
         <v>3142</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.754787324182345%</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -986,6 +1151,11 @@
       <c r="D35" t="n">
         <v>2712</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>47.79595765158807%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1002,6 +1172,11 @@
       <c r="D36" t="n">
         <v>1245</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.7366628830874%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1018,6 +1193,11 @@
       <c r="D37" t="n">
         <v>2000</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>44.55225949542556%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1034,6 +1214,11 @@
       <c r="D38" t="n">
         <v>1700</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>52.68577790147509%</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1050,6 +1235,11 @@
       <c r="D39" t="n">
         <v>2167</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>39.536830357142854%</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1066,6 +1256,11 @@
       <c r="D40" t="n">
         <v>1616</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>44.371772805507746%</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1082,6 +1277,11 @@
       <c r="D41" t="n">
         <v>1291</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>51.702207257762815%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1098,6 +1298,11 @@
       <c r="D42" t="n">
         <v>1001</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>61.186506397828616%</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1114,6 +1319,11 @@
       <c r="D43" t="n">
         <v>1273</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.858649789029535%</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1130,6 +1340,11 @@
       <c r="D44" t="n">
         <v>1271</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31.40852671343767%</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1146,6 +1361,11 @@
       <c r="D45" t="n">
         <v>500</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.33666191155493%</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1162,6 +1382,11 @@
       <c r="D46" t="n">
         <v>574</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>51.23194562446899%</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1178,6 +1403,11 @@
       <c r="D47" t="n">
         <v>620</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>42.857142857142854%</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1194,6 +1424,11 @@
       <c r="D48" t="n">
         <v>382</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.25296442687747%</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1210,6 +1445,11 @@
       <c r="D49" t="n">
         <v>575</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.133657351154312%</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1226,6 +1466,11 @@
       <c r="D50" t="n">
         <v>362</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>55.08684863523573%</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1242,6 +1487,11 @@
       <c r="D51" t="n">
         <v>340</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>53.80434782608695%</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1258,6 +1508,11 @@
       <c r="D52" t="n">
         <v>228</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>46.604215456674474%</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1274,6 +1529,11 @@
       <c r="D53" t="n">
         <v>190</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>47.36842105263158%</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1290,6 +1550,11 @@
       <c r="D54" t="n">
         <v>163</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>44.36860068259386%</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1306,6 +1571,11 @@
       <c r="D55" t="n">
         <v>131</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>52.87769784172662%</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1322,6 +1592,11 @@
       <c r="D56" t="n">
         <v>31</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.52173913043478%</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1338,6 +1613,11 @@
       <c r="D57" t="n">
         <v>156</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.17391304347826%</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1354,6 +1634,11 @@
       <c r="D58" t="n">
         <v>78</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>45.45454545454545%</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1370,6 +1655,11 @@
       <c r="D59" t="n">
         <v>73</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>43.41085271317829%</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1386,6 +1676,11 @@
       <c r="D60" t="n">
         <v>12</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>53.84615384615385%</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1402,6 +1697,11 @@
       <c r="D61" t="n">
         <v>4</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1418,6 +1718,11 @@
       <c r="D62" t="n">
         <v>3</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1434,6 +1739,11 @@
       <c r="D63" t="n">
         <v>1</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1450,6 +1760,11 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1465,6 +1780,11 @@
       </c>
       <c r="D65" t="n">
         <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1479,6 +1799,11 @@
       </c>
       <c r="D66" t="n">
         <v/>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -442,6 +442,11 @@
           <t>HP LIVRE</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PENETRAÇÃO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -460,7 +465,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>52.48436082326536%</t>
+          <t>52.48%</t>
         </is>
       </c>
     </row>
@@ -481,7 +486,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32.640055686236856%</t>
+          <t>32.64%</t>
         </is>
       </c>
     </row>
@@ -502,7 +507,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>51.32571971211515%</t>
+          <t>51.33%</t>
         </is>
       </c>
     </row>
@@ -523,7 +528,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.655734579082846%</t>
+          <t>58.66%</t>
         </is>
       </c>
     </row>
@@ -544,7 +549,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36.363238032643224%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
@@ -565,7 +570,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39.830810541073596%</t>
+          <t>39.83%</t>
         </is>
       </c>
     </row>
@@ -586,7 +591,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>38.68409608349748%</t>
+          <t>38.68%</t>
         </is>
       </c>
     </row>
@@ -607,7 +612,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47.72860320805526%</t>
+          <t>47.73%</t>
         </is>
       </c>
     </row>
@@ -628,7 +633,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.388575458392104%</t>
+          <t>33.39%</t>
         </is>
       </c>
     </row>
@@ -649,7 +654,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>58.11596788581623%</t>
+          <t>58.12%</t>
         </is>
       </c>
     </row>
@@ -670,7 +675,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>41.59247697228967%</t>
+          <t>41.59%</t>
         </is>
       </c>
     </row>
@@ -691,7 +696,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34.341789509770315%</t>
+          <t>34.34%</t>
         </is>
       </c>
     </row>
@@ -712,7 +717,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>48.920425747592496%</t>
+          <t>48.92%</t>
         </is>
       </c>
     </row>
@@ -733,7 +738,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>41.751937984496124%</t>
+          <t>41.75%</t>
         </is>
       </c>
     </row>
@@ -754,7 +759,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>36.4400915526694%</t>
+          <t>36.44%</t>
         </is>
       </c>
     </row>
@@ -775,7 +780,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33.8761426236455%</t>
+          <t>33.88%</t>
         </is>
       </c>
     </row>
@@ -796,7 +801,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>39.06755354854458%</t>
+          <t>39.07%</t>
         </is>
       </c>
     </row>
@@ -817,7 +822,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>38.38893766461808%</t>
+          <t>38.39%</t>
         </is>
       </c>
     </row>
@@ -838,7 +843,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>36.729303448796315%</t>
+          <t>36.73%</t>
         </is>
       </c>
     </row>
@@ -859,7 +864,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51.613684040664836%</t>
+          <t>51.61%</t>
         </is>
       </c>
     </row>
@@ -880,7 +885,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>38.56237902516277%</t>
+          <t>38.56%</t>
         </is>
       </c>
     </row>
@@ -901,7 +906,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>34.818319792875634%</t>
+          <t>34.82%</t>
         </is>
       </c>
     </row>
@@ -922,7 +927,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29.047432379459035%</t>
+          <t>29.05%</t>
         </is>
       </c>
     </row>
@@ -943,7 +948,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>54.40315195399851%</t>
+          <t>54.40%</t>
         </is>
       </c>
     </row>
@@ -964,7 +969,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>51.813354423229015%</t>
+          <t>51.81%</t>
         </is>
       </c>
     </row>
@@ -985,7 +990,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>69.48225712623618%</t>
+          <t>69.48%</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1011,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32.60077707625061%</t>
+          <t>32.60%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1032,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>45.8791564238582%</t>
+          <t>45.88%</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1053,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>28.804120840874287%</t>
+          <t>28.80%</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1074,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>52.21426245522631%</t>
+          <t>52.21%</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1095,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>47.96521168362324%</t>
+          <t>47.97%</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1116,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>40.16366065464262%</t>
+          <t>40.16%</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1137,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>46.754787324182345%</t>
+          <t>46.75%</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1158,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>47.79595765158807%</t>
+          <t>47.80%</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1179,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>71.7366628830874%</t>
+          <t>71.74%</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1200,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>44.55225949542556%</t>
+          <t>44.55%</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1221,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>52.68577790147509%</t>
+          <t>52.69%</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1242,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>39.536830357142854%</t>
+          <t>39.54%</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>44.371772805507746%</t>
+          <t>44.37%</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1284,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>51.702207257762815%</t>
+          <t>51.70%</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1305,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>61.186506397828616%</t>
+          <t>61.19%</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1326,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>32.858649789029535%</t>
+          <t>32.86%</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1347,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>31.40852671343767%</t>
+          <t>31.41%</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1368,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>64.33666191155493%</t>
+          <t>64.34%</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1389,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>51.23194562446899%</t>
+          <t>51.23%</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1410,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>42.857142857142854%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1431,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>62.25296442687747%</t>
+          <t>62.25%</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1452,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30.133657351154312%</t>
+          <t>30.13%</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1473,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>55.08684863523573%</t>
+          <t>55.09%</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1494,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>53.80434782608695%</t>
+          <t>53.80%</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1515,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>46.604215456674474%</t>
+          <t>46.60%</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1536,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47.36842105263158%</t>
+          <t>47.37%</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1557,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>44.36860068259386%</t>
+          <t>44.37%</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1578,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>52.87769784172662%</t>
+          <t>52.88%</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1599,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>86.52173913043478%</t>
+          <t>86.52%</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1620,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>32.17391304347826%</t>
+          <t>32.17%</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1641,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>45.45454545454545%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1662,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>43.41085271317829%</t>
+          <t>43.41%</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1683,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>53.84615384615385%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1704,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1725,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1746,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1767,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1788,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>

--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,1357 +424,1343 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>BAIRRO / CIDADE</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HPs CADASTRADOS</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>INSTALADOS</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>HP LIVRE</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>PENETRAÇÃO</t>
+          <t>Lista por cadastrados</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASA NORTE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>83764</v>
-      </c>
-      <c r="C2" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39801</v>
+          <t>BAIRRO / CIDADE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HPs CADASTRADOS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>INSTALADOS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HP LIVRE</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>52.48%</t>
+          <t>PENETRAÇÃO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CEILANDIA</t>
+          <t>ASA NORTE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83324</v>
+        <v>83764</v>
       </c>
       <c r="C3" t="n">
-        <v>27197</v>
+        <v>43963</v>
       </c>
       <c r="D3" t="n">
-        <v>56127</v>
+        <v>39801</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32.64%</t>
+          <t>52.48%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ÁGUAS CLARAS</t>
+          <t>CEILANDIA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80032</v>
+        <v>83324</v>
       </c>
       <c r="C4" t="n">
-        <v>41077</v>
+        <v>27197</v>
       </c>
       <c r="D4" t="n">
-        <v>38955</v>
+        <v>56127</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>51.33%</t>
+          <t>32.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASA SUL</t>
+          <t>ÁGUAS CLARAS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52445</v>
+        <v>80032</v>
       </c>
       <c r="C5" t="n">
-        <v>30762</v>
+        <v>41077</v>
       </c>
       <c r="D5" t="n">
-        <v>21683</v>
+        <v>38955</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.66%</t>
+          <t>51.33%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TAGUATINGA</t>
+          <t>ASA SUL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45645</v>
+        <v>52445</v>
       </c>
       <c r="C6" t="n">
-        <v>16598</v>
+        <v>30762</v>
       </c>
       <c r="D6" t="n">
-        <v>29047</v>
+        <v>21683</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>58.66%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VICENTE PIRES</t>
+          <t>TAGUATINGA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42083</v>
+        <v>45645</v>
       </c>
       <c r="C7" t="n">
-        <v>16762</v>
+        <v>16598</v>
       </c>
       <c r="D7" t="n">
-        <v>25321</v>
+        <v>29047</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>39.83%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GAMA</t>
+          <t>VICENTE PIRES</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39091</v>
+        <v>42083</v>
       </c>
       <c r="C8" t="n">
-        <v>15122</v>
+        <v>16762</v>
       </c>
       <c r="D8" t="n">
-        <v>23969</v>
+        <v>25321</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>38.68%</t>
+          <t>39.83%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GUARA II</t>
+          <t>GAMA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34164</v>
+        <v>39091</v>
       </c>
       <c r="C9" t="n">
-        <v>16306</v>
+        <v>15122</v>
       </c>
       <c r="D9" t="n">
-        <v>17858</v>
+        <v>23969</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47.73%</t>
+          <t>38.68%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TAGUATINGA NORTE</t>
+          <t>GUARA II</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28360</v>
+        <v>34164</v>
       </c>
       <c r="C10" t="n">
-        <v>9469</v>
+        <v>16306</v>
       </c>
       <c r="D10" t="n">
-        <v>18891</v>
+        <v>17858</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.39%</t>
+          <t>47.73%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SETOR SUDOESTE</t>
+          <t>TAGUATINGA NORTE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28025</v>
+        <v>28360</v>
       </c>
       <c r="C11" t="n">
-        <v>16287</v>
+        <v>9469</v>
       </c>
       <c r="D11" t="n">
-        <v>11738</v>
+        <v>18891</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>58.12%</t>
+          <t>33.39%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOBRADINHO</t>
+          <t>SETOR SUDOESTE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25947</v>
+        <v>28025</v>
       </c>
       <c r="C12" t="n">
-        <v>10792</v>
+        <v>16287</v>
       </c>
       <c r="D12" t="n">
-        <v>15155</v>
+        <v>11738</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>41.59%</t>
+          <t>58.12%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SAMAMBAIA</t>
+          <t>SOBRADINHO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23336</v>
+        <v>25947</v>
       </c>
       <c r="C13" t="n">
-        <v>8014</v>
+        <v>10792</v>
       </c>
       <c r="D13" t="n">
-        <v>15322</v>
+        <v>15155</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34.34%</t>
+          <t>41.59%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GUARA I</t>
+          <t>SAMAMBAIA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19730</v>
+        <v>23336</v>
       </c>
       <c r="C14" t="n">
-        <v>9652</v>
+        <v>8014</v>
       </c>
       <c r="D14" t="n">
-        <v>10078</v>
+        <v>15322</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>48.92%</t>
+          <t>34.34%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RIACHO FUNDO  I</t>
+          <t>GUARA I</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19350</v>
+        <v>19730</v>
       </c>
       <c r="C15" t="n">
-        <v>8079</v>
+        <v>9652</v>
       </c>
       <c r="D15" t="n">
-        <v>11271</v>
+        <v>10078</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>41.75%</t>
+          <t>48.92%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TAGUATINGA SUL</t>
+          <t>RIACHO FUNDO  I</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18787</v>
+        <v>19350</v>
       </c>
       <c r="C16" t="n">
-        <v>6846</v>
+        <v>8079</v>
       </c>
       <c r="D16" t="n">
-        <v>11941</v>
+        <v>11271</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>36.44%</t>
+          <t>41.75%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAO SEBASTIAO</t>
+          <t>TAGUATINGA SUL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16519</v>
+        <v>18787</v>
       </c>
       <c r="C17" t="n">
-        <v>5596</v>
+        <v>6846</v>
       </c>
       <c r="D17" t="n">
-        <v>10923</v>
+        <v>11941</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33.88%</t>
+          <t>36.44%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAMAMBAIA SUL</t>
+          <t>SAO SEBASTIAO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16387</v>
+        <v>16519</v>
       </c>
       <c r="C18" t="n">
-        <v>6402</v>
+        <v>5596</v>
       </c>
       <c r="D18" t="n">
-        <v>9985</v>
+        <v>10923</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>39.07%</t>
+          <t>33.88%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RIACHO FUNDO II</t>
+          <t>SAMAMBAIA SUL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13668</v>
+        <v>16387</v>
       </c>
       <c r="C19" t="n">
-        <v>5247</v>
+        <v>6402</v>
       </c>
       <c r="D19" t="n">
-        <v>8421</v>
+        <v>9985</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>38.39%</t>
+          <t>39.07%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RECANTO DAS EMAS</t>
+          <t>RIACHO FUNDO II</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13251</v>
+        <v>13668</v>
       </c>
       <c r="C20" t="n">
-        <v>4867</v>
+        <v>5247</v>
       </c>
       <c r="D20" t="n">
-        <v>8384</v>
+        <v>8421</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>36.73%</t>
+          <t>38.39%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SET DE HAB IND SUL</t>
+          <t>RECANTO DAS EMAS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12394</v>
+        <v>13251</v>
       </c>
       <c r="C21" t="n">
-        <v>6397</v>
+        <v>4867</v>
       </c>
       <c r="D21" t="n">
-        <v>5997</v>
+        <v>8384</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51.61%</t>
+          <t>36.73%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NUCLEO BANDEIRANTE</t>
+          <t>SET DE HAB IND SUL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11366</v>
+        <v>12394</v>
       </c>
       <c r="C22" t="n">
-        <v>4383</v>
+        <v>6397</v>
       </c>
       <c r="D22" t="n">
-        <v>6983</v>
+        <v>5997</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>38.56%</t>
+          <t>51.61%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PARANOA</t>
+          <t>NUCLEO BANDEIRANTE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11201</v>
+        <v>11366</v>
       </c>
       <c r="C23" t="n">
-        <v>3900</v>
+        <v>4383</v>
       </c>
       <c r="D23" t="n">
-        <v>7301</v>
+        <v>6983</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>34.82%</t>
+          <t>38.56%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SETOR MANSOES SOBRADINHO</t>
+          <t>PARANOA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10204</v>
+        <v>11201</v>
       </c>
       <c r="C24" t="n">
-        <v>2964</v>
+        <v>3900</v>
       </c>
       <c r="D24" t="n">
-        <v>7240</v>
+        <v>7301</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29.05%</t>
+          <t>34.82%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S H J BOTANICO</t>
+          <t>SETOR MANSOES SOBRADINHO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9391</v>
+        <v>10204</v>
       </c>
       <c r="C25" t="n">
-        <v>5109</v>
+        <v>2964</v>
       </c>
       <c r="D25" t="n">
-        <v>4282</v>
+        <v>7240</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>54.40%</t>
+          <t>29.05%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LAGO NORTE</t>
+          <t>S H J BOTANICO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8851</v>
+        <v>9391</v>
       </c>
       <c r="C26" t="n">
-        <v>4586</v>
+        <v>5109</v>
       </c>
       <c r="D26" t="n">
-        <v>4265</v>
+        <v>4282</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>51.81%</t>
+          <t>54.40%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CRUZEIRO NOVO</t>
+          <t>LAGO NORTE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8595</v>
+        <v>8851</v>
       </c>
       <c r="C27" t="n">
-        <v>5972</v>
+        <v>4586</v>
       </c>
       <c r="D27" t="n">
-        <v>2623</v>
+        <v>4265</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>69.48%</t>
+          <t>51.81%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SETOR RESIDENCIAL OESTE</t>
+          <t>CRUZEIRO NOVO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8236</v>
+        <v>8595</v>
       </c>
       <c r="C28" t="n">
-        <v>2685</v>
+        <v>5972</v>
       </c>
       <c r="D28" t="n">
-        <v>5551</v>
+        <v>2623</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32.60%</t>
+          <t>69.48%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JARDIM MANGUEIRAL</t>
+          <t>SETOR RESIDENCIAL OESTE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7729</v>
+        <v>8236</v>
       </c>
       <c r="C29" t="n">
-        <v>3546</v>
+        <v>2685</v>
       </c>
       <c r="D29" t="n">
-        <v>4183</v>
+        <v>5551</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>45.88%</t>
+          <t>32.60%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SETOR NOROESTE</t>
+          <t>JARDIM MANGUEIRAL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7183</v>
+        <v>7729</v>
       </c>
       <c r="C30" t="n">
-        <v>2069</v>
+        <v>3546</v>
       </c>
       <c r="D30" t="n">
-        <v>5114</v>
+        <v>4183</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>28.80%</t>
+          <t>45.88%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R D LAGOS (SOBRAD)</t>
+          <t>SETOR NOROESTE</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6142</v>
+        <v>7183</v>
       </c>
       <c r="C31" t="n">
-        <v>3207</v>
+        <v>2069</v>
       </c>
       <c r="D31" t="n">
-        <v>2935</v>
+        <v>5114</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>52.21%</t>
+          <t>28.80%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SETOR DE HABIT IND NORTE</t>
+          <t>R D LAGOS (SOBRAD)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6094</v>
+        <v>6142</v>
       </c>
       <c r="C32" t="n">
-        <v>2923</v>
+        <v>3207</v>
       </c>
       <c r="D32" t="n">
-        <v>3171</v>
+        <v>2935</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>47.97%</t>
+          <t>52.21%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CANDANGOLANDIA</t>
+          <t>SETOR DE HABIT IND NORTE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5988</v>
+        <v>6094</v>
       </c>
       <c r="C33" t="n">
-        <v>2405</v>
+        <v>2923</v>
       </c>
       <c r="D33" t="n">
-        <v>3583</v>
+        <v>3171</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>40.16%</t>
+          <t>47.97%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ZONA  INDUSTRIAL (GUARA)</t>
+          <t>CANDANGOLANDIA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5901</v>
+        <v>5988</v>
       </c>
       <c r="C34" t="n">
-        <v>2759</v>
+        <v>2405</v>
       </c>
       <c r="D34" t="n">
-        <v>3142</v>
+        <v>3583</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>46.75%</t>
+          <t>40.16%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LAGO SUL</t>
+          <t>ZONA  INDUSTRIAL (GUARA)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5195</v>
+        <v>5901</v>
       </c>
       <c r="C35" t="n">
-        <v>2483</v>
+        <v>2759</v>
       </c>
       <c r="D35" t="n">
-        <v>2712</v>
+        <v>3142</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>47.80%</t>
+          <t>46.75%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AREA OCTOGONAL</t>
+          <t>LAGO SUL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4405</v>
+        <v>5195</v>
       </c>
       <c r="C36" t="n">
-        <v>3160</v>
+        <v>2483</v>
       </c>
       <c r="D36" t="n">
-        <v>1245</v>
+        <v>2712</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>71.74%</t>
+          <t>47.80%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CRUZEIRO VELHO</t>
+          <t>AREA OCTOGONAL</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3607</v>
+        <v>4405</v>
       </c>
       <c r="C37" t="n">
-        <v>1607</v>
+        <v>3160</v>
       </c>
       <c r="D37" t="n">
-        <v>2000</v>
+        <v>1245</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>44.55%</t>
+          <t>71.74%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>G COL SOBRADINHO</t>
+          <t>CRUZEIRO VELHO</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3593</v>
+        <v>3607</v>
       </c>
       <c r="C38" t="n">
-        <v>1893</v>
+        <v>1607</v>
       </c>
       <c r="D38" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>52.69%</t>
+          <t>44.55%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>VILA PLANALTO</t>
+          <t>G COL SOBRADINHO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3584</v>
+        <v>3593</v>
       </c>
       <c r="C39" t="n">
-        <v>1417</v>
+        <v>1893</v>
       </c>
       <c r="D39" t="n">
-        <v>2167</v>
+        <v>1700</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>39.54%</t>
+          <t>52.69%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SANTOS DUMONT</t>
+          <t>VILA PLANALTO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2905</v>
+        <v>3584</v>
       </c>
       <c r="C40" t="n">
-        <v>1289</v>
+        <v>1417</v>
       </c>
       <c r="D40" t="n">
-        <v>1616</v>
+        <v>2167</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>44.37%</t>
+          <t>39.54%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SETOR HAB ARNIQUEIRA</t>
+          <t>SANTOS DUMONT</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2673</v>
+        <v>2905</v>
       </c>
       <c r="C41" t="n">
-        <v>1382</v>
+        <v>1289</v>
       </c>
       <c r="D41" t="n">
-        <v>1291</v>
+        <v>1616</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>51.70%</t>
+          <t>44.37%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PARK WAY</t>
+          <t>SETOR HAB ARNIQUEIRA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2579</v>
+        <v>2673</v>
       </c>
       <c r="C42" t="n">
-        <v>1578</v>
+        <v>1382</v>
       </c>
       <c r="D42" t="n">
-        <v>1001</v>
+        <v>1291</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>61.19%</t>
+          <t>51.70%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Z IND (GUARA)</t>
+          <t>PARK WAY</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1896</v>
+        <v>2579</v>
       </c>
       <c r="C43" t="n">
-        <v>623</v>
+        <v>1578</v>
       </c>
       <c r="D43" t="n">
-        <v>1273</v>
+        <v>1001</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>32.86%</t>
+          <t>61.19%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ZONA INDUSTRIAL</t>
+          <t>Z IND (GUARA)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853</v>
+        <v>1896</v>
       </c>
       <c r="C44" t="n">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="D44" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>31.41%</t>
+          <t>32.86%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ZONA CIVICO ADMINISTRATIVA</t>
+          <t>ZONA INDUSTRIAL</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1402</v>
+        <v>1853</v>
       </c>
       <c r="C45" t="n">
-        <v>902</v>
+        <v>582</v>
       </c>
       <c r="D45" t="n">
-        <v>500</v>
+        <v>1271</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>64.34%</t>
+          <t>31.41%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>REGIAO DOS LAGOS SOBRADINHO</t>
+          <t>ZONA CIVICO ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1177</v>
+        <v>1402</v>
       </c>
       <c r="C46" t="n">
-        <v>603</v>
+        <v>902</v>
       </c>
       <c r="D46" t="n">
-        <v>574</v>
+        <v>500</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>51.23%</t>
+          <t>64.34%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>METROPOLITANA</t>
+          <t>REGIAO DOS LAGOS SOBRADINHO</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1085</v>
+        <v>1177</v>
       </c>
       <c r="C47" t="n">
-        <v>465</v>
+        <v>603</v>
       </c>
       <c r="D47" t="n">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>51.23%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SETOR MILITAR URBANO</t>
+          <t>METROPOLITANA</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1012</v>
+        <v>1085</v>
       </c>
       <c r="C48" t="n">
-        <v>630</v>
+        <v>465</v>
       </c>
       <c r="D48" t="n">
-        <v>382</v>
+        <v>620</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>62.25%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZONA CIVICO-ADMINISTRATIVA</t>
+          <t>SETOR MILITAR URBANO</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>823</v>
+        <v>1012</v>
       </c>
       <c r="C49" t="n">
-        <v>248</v>
+        <v>630</v>
       </c>
       <c r="D49" t="n">
-        <v>575</v>
+        <v>382</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30.13%</t>
+          <t>62.25%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GRANJA DO TORTO</t>
+          <t>ZONA CIVICO-ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="C50" t="n">
-        <v>444</v>
+        <v>248</v>
       </c>
       <c r="D50" t="n">
-        <v>362</v>
+        <v>575</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>55.09%</t>
+          <t>30.13%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ST DE HB INDIVIDUAIS SUL</t>
+          <t>GRANJA DO TORTO</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>736</v>
+        <v>806</v>
       </c>
       <c r="C51" t="n">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="D51" t="n">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>53.80%</t>
+          <t>55.09%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SETOR HABIT JD BOTANICO</t>
+          <t>ST DE HB INDIVIDUAIS SUL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>427</v>
+        <v>736</v>
       </c>
       <c r="C52" t="n">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="D52" t="n">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>46.60%</t>
+          <t>53.80%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SAMAMBAI NORTE</t>
+          <t>SETOR HABIT JD BOTANICO</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="C53" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="D53" t="n">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47.37%</t>
+          <t>46.60%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SETOR H CONTAGEM (SOBRADINHO)</t>
+          <t>SAMAMBAI NORTE</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="C54" t="n">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D54" t="n">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>44.37%</t>
+          <t>47.37%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SETOR HABITACIONAL JARDIM BOTANICO</t>
+          <t>SETOR H CONTAGEM (SOBRADINHO)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C55" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D55" t="n">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>52.88%</t>
+          <t>44.37%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PLANO PILOTO</t>
+          <t>SETOR HABITACIONAL JARDIM BOTANICO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="C56" t="n">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="D56" t="n">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>86.52%</t>
+          <t>52.88%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SET HAB CONTAGEM (SOBRADINHO)</t>
+          <t>PLANO PILOTO</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>230</v>
       </c>
       <c r="C57" t="n">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="D57" t="n">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>32.17%</t>
+          <t>86.52%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ST H JD BOTANICO (LAGO SUL)</t>
+          <t>SET HAB CONTAGEM (SOBRADINHO)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="C58" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D58" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>32.17%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S H TORORO (SANTA MARIA)</t>
+          <t>ST H JD BOTANICO (LAGO SUL)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C59" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D59" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>43.41%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S HABITACIONAL V P</t>
+          <t>S H TORORO (SANTA MARIA)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>43.41%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SETOR OESTE (SOBRADINHO II)</t>
+          <t>S HABITACIONAL V P</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VILA SAO JOSE</t>
+          <t>SETOR OESTE (SOBRADINHO II)</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AREA DE DESENVOLVIMENTO ECONOMICO</t>
+          <t>VILA SAO JOSE</t>
         </is>
       </c>
       <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
         <v>1</v>
       </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CAMPUS UNIVERSITARIO DARCY RIBEIRO</t>
+          <t>AREA DE DESENVOLVIMENTO ECONOMICO</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
         <v>1</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SETOR DE HABIT INDIVIDUAIS SUL</t>
+          <t>CAMPUS UNIVERSITARIO DARCY RIBEIRO</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1793,19 +1779,1437 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SETOR DE HABIT INDIVIDUAIS SUL</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
         <v/>
       </c>
-      <c r="B66" t="n">
+      <c r="B67" t="n">
         <v/>
       </c>
-      <c r="C66" t="n">
+      <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D67" t="n">
         <v/>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>nan%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Lista por penetracao</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BAIRRO / CIDADE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>HPs CADASTRADOS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>INSTALADOS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>HP LIVRE</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>PENETRAÇÃO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>AREA DE DESENVOLVIMENTO ECONOMICO</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SETOR OESTE (SOBRADINHO II)</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CAMPUS UNIVERSITARIO DARCY RIBEIRO</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SETOR DE HABIT INDIVIDUAIS SUL</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VILA SAO JOSE</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SETOR NOROESTE</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7183</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2069</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5114</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SETOR MANSOES SOBRADINHO</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10204</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2964</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7240</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ZONA CIVICO-ADMINISTRATIVA</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>823</v>
+      </c>
+      <c r="C79" t="n">
+        <v>248</v>
+      </c>
+      <c r="D79" t="n">
+        <v>575</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>30.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ZONA INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1853</v>
+      </c>
+      <c r="C80" t="n">
+        <v>582</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>31.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SET HAB CONTAGEM (SOBRADINHO)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>230</v>
+      </c>
+      <c r="C81" t="n">
+        <v>74</v>
+      </c>
+      <c r="D81" t="n">
+        <v>156</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SETOR RESIDENCIAL OESTE</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8236</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2685</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5551</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>32.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CEILANDIA</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>83324</v>
+      </c>
+      <c r="C83" t="n">
+        <v>27197</v>
+      </c>
+      <c r="D83" t="n">
+        <v>56127</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>32.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Z IND (GUARA)</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C84" t="n">
+        <v>623</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1273</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TAGUATINGA NORTE</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>28360</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9469</v>
+      </c>
+      <c r="D85" t="n">
+        <v>18891</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>33.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SAO SEBASTIAO</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>16519</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5596</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10923</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>33.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>23336</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8014</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15322</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>34.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PARANOA</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>11201</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3900</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7301</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>34.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TAGUATINGA</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>45645</v>
+      </c>
+      <c r="C89" t="n">
+        <v>16598</v>
+      </c>
+      <c r="D89" t="n">
+        <v>29047</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>36.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TAGUATINGA SUL</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>18787</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6846</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11941</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>36.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RECANTO DAS EMAS</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>13251</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4867</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8384</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>36.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RIACHO FUNDO II</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>13668</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5247</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8421</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>38.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NUCLEO BANDEIRANTE</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>11366</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4383</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6983</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>38.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>GAMA</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>39091</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15122</v>
+      </c>
+      <c r="D94" t="n">
+        <v>23969</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>38.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA SUL</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>16387</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6402</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9985</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>39.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>VILA PLANALTO</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3584</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1417</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2167</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>39.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>VICENTE PIRES</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>42083</v>
+      </c>
+      <c r="C97" t="n">
+        <v>16762</v>
+      </c>
+      <c r="D97" t="n">
+        <v>25321</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>39.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CANDANGOLANDIA</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5988</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2405</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3583</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>40.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SOBRADINHO</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>25947</v>
+      </c>
+      <c r="C99" t="n">
+        <v>10792</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15155</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>41.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RIACHO FUNDO  I</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C100" t="n">
+        <v>8079</v>
+      </c>
+      <c r="D100" t="n">
+        <v>11271</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>41.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>METROPOLITANA</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C101" t="n">
+        <v>465</v>
+      </c>
+      <c r="D101" t="n">
+        <v>620</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>S H TORORO (SANTA MARIA)</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>129</v>
+      </c>
+      <c r="C102" t="n">
+        <v>56</v>
+      </c>
+      <c r="D102" t="n">
+        <v>73</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>43.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SANTOS DUMONT</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2905</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1289</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1616</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>44.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SETOR H CONTAGEM (SOBRADINHO)</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>293</v>
+      </c>
+      <c r="C104" t="n">
+        <v>130</v>
+      </c>
+      <c r="D104" t="n">
+        <v>163</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>44.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CRUZEIRO VELHO</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3607</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1607</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>44.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ST H JD BOTANICO (LAGO SUL)</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>143</v>
+      </c>
+      <c r="C106" t="n">
+        <v>65</v>
+      </c>
+      <c r="D106" t="n">
+        <v>78</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>45.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>JARDIM MANGUEIRAL</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7729</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3546</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4183</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>45.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SETOR HABIT JD BOTANICO</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>427</v>
+      </c>
+      <c r="C108" t="n">
+        <v>199</v>
+      </c>
+      <c r="D108" t="n">
+        <v>228</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>46.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ZONA  INDUSTRIAL (GUARA)</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5901</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2759</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3142</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>46.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SAMAMBAI NORTE</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>361</v>
+      </c>
+      <c r="C110" t="n">
+        <v>171</v>
+      </c>
+      <c r="D110" t="n">
+        <v>190</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>47.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>GUARA II</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>34164</v>
+      </c>
+      <c r="C111" t="n">
+        <v>16306</v>
+      </c>
+      <c r="D111" t="n">
+        <v>17858</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>47.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>LAGO SUL</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5195</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2483</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>47.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SETOR DE HABIT IND NORTE</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6094</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2923</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3171</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>47.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GUARA I</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>19730</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9652</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10078</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>48.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>REGIAO DOS LAGOS SOBRADINHO</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C115" t="n">
+        <v>603</v>
+      </c>
+      <c r="D115" t="n">
+        <v>574</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>51.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>80032</v>
+      </c>
+      <c r="C116" t="n">
+        <v>41077</v>
+      </c>
+      <c r="D116" t="n">
+        <v>38955</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>51.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SET DE HAB IND SUL</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>12394</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6397</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5997</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>51.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SETOR HAB ARNIQUEIRA</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2673</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1382</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1291</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>51.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>LAGO NORTE</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>8851</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4586</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4265</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>51.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>R D LAGOS (SOBRAD)</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6142</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3207</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2935</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>52.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ASA NORTE</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>83764</v>
+      </c>
+      <c r="C121" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D121" t="n">
+        <v>39801</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>52.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>G COL SOBRADINHO</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3593</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>52.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SETOR HABITACIONAL JARDIM BOTANICO</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>278</v>
+      </c>
+      <c r="C123" t="n">
+        <v>147</v>
+      </c>
+      <c r="D123" t="n">
+        <v>131</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>52.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ST DE HB INDIVIDUAIS SUL</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>736</v>
+      </c>
+      <c r="C124" t="n">
+        <v>396</v>
+      </c>
+      <c r="D124" t="n">
+        <v>340</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>53.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>S HABITACIONAL V P</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>26</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>S H J BOTANICO</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>9391</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5109</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4282</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>54.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>GRANJA DO TORTO</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>806</v>
+      </c>
+      <c r="C127" t="n">
+        <v>444</v>
+      </c>
+      <c r="D127" t="n">
+        <v>362</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>55.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SETOR SUDOESTE</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>28025</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16287</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11738</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>58.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ASA SUL</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>52445</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30762</v>
+      </c>
+      <c r="D129" t="n">
+        <v>21683</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>58.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>PARK WAY</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2579</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1578</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>61.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SETOR MILITAR URBANO</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C131" t="n">
+        <v>630</v>
+      </c>
+      <c r="D131" t="n">
+        <v>382</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>62.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ZONA CIVICO ADMINISTRATIVA</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1402</v>
+      </c>
+      <c r="C132" t="n">
+        <v>902</v>
+      </c>
+      <c r="D132" t="n">
+        <v>500</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>64.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CRUZEIRO NOVO</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8595</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5972</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2623</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>69.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>AREA OCTOGONAL</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4405</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3160</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>71.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PLANO PILOTO</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>230</v>
+      </c>
+      <c r="C135" t="n">
+        <v>199</v>
+      </c>
+      <c r="D135" t="n">
+        <v>31</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v/>
+      </c>
+      <c r="B136" t="n">
+        <v/>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v/>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>nan%</t>
         </is>
